--- a/Code/Results/Cases/Case_1_134/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_134/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8056154022312967</v>
+        <v>0.6232884480899656</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05412715721335815</v>
+        <v>0.02690862442339181</v>
       </c>
       <c r="E2">
-        <v>0.08560055008873402</v>
+        <v>0.2084112958037858</v>
       </c>
       <c r="F2">
-        <v>0.4972085767379042</v>
+        <v>0.6917086417030944</v>
       </c>
       <c r="G2">
-        <v>0.0007944392557685171</v>
+        <v>0.002422417213734766</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3748978698275245</v>
+        <v>0.8987914908940198</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.378961258568751</v>
+        <v>0.4171906485533441</v>
       </c>
       <c r="L2">
-        <v>0.3249641915362815</v>
+        <v>0.1735204502681711</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7997672496043524</v>
+        <v>1.606075040866205</v>
       </c>
       <c r="O2">
-        <v>1.417857988438584</v>
+        <v>2.359832708075601</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7077562041794465</v>
+        <v>0.5977414858373606</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04858467500076813</v>
+        <v>0.0250182463317401</v>
       </c>
       <c r="E3">
-        <v>0.08728589269369547</v>
+        <v>0.2099774247134594</v>
       </c>
       <c r="F3">
-        <v>0.4628539766291198</v>
+        <v>0.6879759794752189</v>
       </c>
       <c r="G3">
-        <v>0.0007979332579099429</v>
+        <v>0.002424782780578028</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3844799404391068</v>
+        <v>0.907204706526052</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.20788316385395</v>
+        <v>0.3639223348889971</v>
       </c>
       <c r="L3">
-        <v>0.2832006530479845</v>
+        <v>0.1623285125416345</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8371739527882358</v>
+        <v>1.622308216799819</v>
       </c>
       <c r="O3">
-        <v>1.350158887302371</v>
+        <v>2.360461345777935</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6480093408634957</v>
+        <v>0.5822958695243585</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04516967004663996</v>
+        <v>0.02384711740899803</v>
       </c>
       <c r="E4">
-        <v>0.08842410284176605</v>
+        <v>0.2110098799531901</v>
       </c>
       <c r="F4">
-        <v>0.442631152885248</v>
+        <v>0.6861100133191371</v>
       </c>
       <c r="G4">
-        <v>0.0008001530940800891</v>
+        <v>0.002426314196749564</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3910544004606464</v>
+        <v>0.9127680805732936</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.10279642348857</v>
+        <v>0.3310970610297659</v>
       </c>
       <c r="L4">
-        <v>0.2577423604247144</v>
+        <v>0.1555327897606134</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8611649631467895</v>
+        <v>1.63280354603296</v>
       </c>
       <c r="O4">
-        <v>1.311355023591688</v>
+        <v>2.362229328441188</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6237388783642075</v>
+        <v>0.5760626450020254</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04377479436782039</v>
+        <v>0.02336727240821546</v>
       </c>
       <c r="E5">
-        <v>0.0889135571432691</v>
+        <v>0.2114484587196541</v>
       </c>
       <c r="F5">
-        <v>0.4345969733296826</v>
+        <v>0.6854567536984462</v>
       </c>
       <c r="G5">
-        <v>0.0008010767180617243</v>
+        <v>0.002426958171625151</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3939022748130405</v>
+        <v>0.9151352268179451</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.059949086168899</v>
+        <v>0.317691425004142</v>
       </c>
       <c r="L5">
-        <v>0.247409022862243</v>
+        <v>0.1527827495160494</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8711931528649899</v>
+        <v>1.637213304494603</v>
       </c>
       <c r="O5">
-        <v>1.296201421021379</v>
+        <v>2.363297343136821</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6197131917860474</v>
+        <v>0.5750313228724622</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04354297422250397</v>
+        <v>0.02328743809773215</v>
       </c>
       <c r="E6">
-        <v>0.0889963675144303</v>
+        <v>0.2115223630618388</v>
       </c>
       <c r="F6">
-        <v>0.4332750458153143</v>
+        <v>0.6853547524073917</v>
       </c>
       <c r="G6">
-        <v>0.0008012312423379827</v>
+        <v>0.002427066307281703</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3943852095247884</v>
+        <v>0.9155343321595133</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.052832537695679</v>
+        <v>0.3154636936105817</v>
       </c>
       <c r="L6">
-        <v>0.2456955131517446</v>
+        <v>0.152327274874736</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8728733660571297</v>
+        <v>1.637953564941121</v>
       </c>
       <c r="O6">
-        <v>1.293723984803592</v>
+        <v>2.36349567817571</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6476817204736847</v>
+        <v>0.582211558393027</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04515087166754483</v>
+        <v>0.02384065655215295</v>
       </c>
       <c r="E7">
-        <v>0.08843060053003615</v>
+        <v>0.2110157224860485</v>
       </c>
       <c r="F7">
-        <v>0.4425219796407589</v>
+        <v>0.6861007693866412</v>
       </c>
       <c r="G7">
-        <v>0.0008001654729673264</v>
+        <v>0.002426322800886691</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3910921312201978</v>
+        <v>0.912799599680163</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.102218681091927</v>
+        <v>0.3309163847375771</v>
       </c>
       <c r="L7">
-        <v>0.2576028417586969</v>
+        <v>0.1554956235684131</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8612991951039994</v>
+        <v>1.63286247972332</v>
       </c>
       <c r="O7">
-        <v>1.311148033302715</v>
+        <v>2.362242324813224</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7717979653202462</v>
+        <v>0.6144303027969045</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05221842804638044</v>
+        <v>0.02625899933916287</v>
       </c>
       <c r="E8">
-        <v>0.08615996434146123</v>
+        <v>0.2089366111650692</v>
       </c>
       <c r="F8">
-        <v>0.4851747724626989</v>
+        <v>0.6903332442784489</v>
       </c>
       <c r="G8">
-        <v>0.0007956287014289899</v>
+        <v>0.002423216510448967</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3780552514491013</v>
+        <v>0.9016098648018911</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.31997486049238</v>
+        <v>0.3988486828486373</v>
       </c>
       <c r="L8">
-        <v>0.3105224995987044</v>
+        <v>0.1696457276739807</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8124492755444024</v>
+        <v>1.611562655342009</v>
       </c>
       <c r="O8">
-        <v>1.393919744202719</v>
+        <v>2.359762642155488</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.018290819994263</v>
+        <v>0.6794970697685017</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.06599562672076331</v>
+        <v>0.03091784391224905</v>
       </c>
       <c r="E9">
-        <v>0.08254525047551553</v>
+        <v>0.2054202593495162</v>
       </c>
       <c r="F9">
-        <v>0.5763125102483286</v>
+        <v>0.7020121814853866</v>
       </c>
       <c r="G9">
-        <v>0.0007873095653870967</v>
+        <v>0.00241774885139025</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3582096158117913</v>
+        <v>0.8828199843867495</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.747266138510724</v>
+        <v>0.5311011740609501</v>
       </c>
       <c r="L9">
-        <v>0.416020567327962</v>
+        <v>0.1979947713493004</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7250355318059221</v>
+        <v>1.573981896577173</v>
       </c>
       <c r="O9">
-        <v>1.579863191570212</v>
+        <v>2.365867329335003</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.201898897345984</v>
+        <v>0.7284284918052322</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07608633451359736</v>
+        <v>0.0342890451585447</v>
       </c>
       <c r="E10">
-        <v>0.08042555511786098</v>
+        <v>0.2031768073700828</v>
       </c>
       <c r="F10">
-        <v>0.6487031586966481</v>
+        <v>0.7126544477688697</v>
       </c>
       <c r="G10">
-        <v>0.0007815294033925783</v>
+        <v>0.002414108310903015</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3474594548864367</v>
+        <v>0.8709347515764705</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.062312672838004</v>
+        <v>0.6276573783410697</v>
       </c>
       <c r="L10">
-        <v>0.494964591294476</v>
+        <v>0.2191863574853983</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6663011518404005</v>
+        <v>1.548920868109274</v>
       </c>
       <c r="O10">
-        <v>1.733386164751124</v>
+        <v>2.377045713747663</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.286118623600146</v>
+        <v>0.7509288231973699</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08067449971341745</v>
+        <v>0.03581133577122841</v>
       </c>
       <c r="E11">
-        <v>0.07958343381468147</v>
+        <v>0.2022296404301738</v>
       </c>
       <c r="F11">
-        <v>0.6830187233392024</v>
+        <v>0.7179440894775269</v>
       </c>
       <c r="G11">
-        <v>0.000778967238925838</v>
+        <v>0.002412533108740953</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3434810023808303</v>
+        <v>0.8659441622722497</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.206106097387988</v>
+        <v>0.6714465664937848</v>
       </c>
       <c r="L11">
-        <v>0.5312808497187262</v>
+        <v>0.2289054558372641</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6408622100622487</v>
+        <v>1.538072803982798</v>
       </c>
       <c r="O11">
-        <v>1.807492639128498</v>
+        <v>2.383586301068135</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.318123093211625</v>
+        <v>0.7594832957352935</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08241198347079859</v>
+        <v>0.03638614565642939</v>
       </c>
       <c r="E12">
-        <v>0.07928261529525926</v>
+        <v>0.2018814961462621</v>
       </c>
       <c r="F12">
-        <v>0.6962302885050633</v>
+        <v>0.7200116174371942</v>
       </c>
       <c r="G12">
-        <v>0.0007780062808816112</v>
+        <v>0.002411948194311338</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3421127272961826</v>
+        <v>0.8641141510310391</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.260645425057305</v>
+        <v>0.6880084420313324</v>
       </c>
       <c r="L12">
-        <v>0.5450989557553498</v>
+        <v>0.2325970862033131</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.631421203176922</v>
+        <v>1.534044322518001</v>
       </c>
       <c r="O12">
-        <v>1.836221288949105</v>
+        <v>2.386272409666134</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.311225160016789</v>
+        <v>0.7576394305579015</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08203777735734263</v>
+        <v>0.03626242379082356</v>
       </c>
       <c r="E13">
-        <v>0.07934658967893959</v>
+        <v>0.2019560074598044</v>
       </c>
       <c r="F13">
-        <v>0.6933749926503623</v>
+        <v>0.7195634720685575</v>
       </c>
       <c r="G13">
-        <v>0.0007782128342725092</v>
+        <v>0.002412073651963498</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3424011413519708</v>
+        <v>0.864505616535947</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.248895174248503</v>
+        <v>0.6844424537583791</v>
       </c>
       <c r="L13">
-        <v>0.5421199174644471</v>
+        <v>0.2318015307165666</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6334458109250622</v>
+        <v>1.5349083943729</v>
       </c>
       <c r="O13">
-        <v>1.83000356163268</v>
+        <v>2.385684597599493</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.288749327014358</v>
+        <v>0.7516319250969161</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0808174405308435</v>
+        <v>0.03585865891267304</v>
       </c>
       <c r="E14">
-        <v>0.07955832003969121</v>
+        <v>0.2022007875577643</v>
       </c>
       <c r="F14">
-        <v>0.6841011909598507</v>
+        <v>0.7181128946232604</v>
       </c>
       <c r="G14">
-        <v>0.000778887996736215</v>
+        <v>0.002412484755961018</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3433656197577264</v>
+        <v>0.8657924074042569</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.210591203958927</v>
+        <v>0.6728095299929748</v>
       </c>
       <c r="L14">
-        <v>0.5324163058045031</v>
+        <v>0.2292089444113969</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6400815928887287</v>
+        <v>1.537739786059813</v>
       </c>
       <c r="O14">
-        <v>1.809842499440549</v>
+        <v>2.38380309336921</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.274997231354007</v>
+        <v>0.7479565757564899</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08006996577908865</v>
+        <v>0.03561112581587622</v>
       </c>
       <c r="E15">
-        <v>0.07969038041816212</v>
+        <v>0.2023520926222897</v>
       </c>
       <c r="F15">
-        <v>0.6784495312380869</v>
+        <v>0.7172327672315362</v>
       </c>
       <c r="G15">
-        <v>0.0007793027494580767</v>
+        <v>0.002412738075241002</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3439746181831715</v>
+        <v>0.8665883934809493</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.187140956997069</v>
+        <v>0.6656813827063388</v>
       </c>
       <c r="L15">
-        <v>0.5264813895053635</v>
+        <v>0.2276223675017803</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6441714776063279</v>
+        <v>1.539484441988066</v>
       </c>
       <c r="O15">
-        <v>1.79758163213711</v>
+        <v>2.382677879611691</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.196409966695683</v>
+        <v>0.7269628444638272</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07578647363924773</v>
+        <v>0.03418933059702312</v>
       </c>
       <c r="E16">
-        <v>0.08048309062094638</v>
+        <v>0.203240181522192</v>
       </c>
       <c r="F16">
-        <v>0.6464899220200522</v>
+        <v>0.712317778348563</v>
       </c>
       <c r="G16">
-        <v>0.0007816981671704514</v>
+        <v>0.002414212877412285</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3477384070164788</v>
+        <v>0.8712692694821911</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.052926650142183</v>
+        <v>0.6247928754961549</v>
       </c>
       <c r="L16">
-        <v>0.4926000275110454</v>
+        <v>0.2185527686951474</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6679900821426177</v>
+        <v>1.549640930555414</v>
       </c>
       <c r="O16">
-        <v>1.728633416794679</v>
+        <v>2.376647561942917</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.148385845339789</v>
+        <v>0.7141452186077117</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.07315838440037936</v>
+        <v>0.03331419650363188</v>
       </c>
       <c r="E17">
-        <v>0.08100103154429483</v>
+        <v>0.203803773722262</v>
       </c>
       <c r="F17">
-        <v>0.6272507538097329</v>
+        <v>0.7094174245307627</v>
       </c>
       <c r="G17">
-        <v>0.0007831846321676148</v>
+        <v>0.002415138303064886</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3502858766251578</v>
+        <v>0.874247389869705</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.970725991604326</v>
+        <v>0.599674051118285</v>
       </c>
       <c r="L17">
-        <v>0.4719238303246414</v>
+        <v>0.2130089877765329</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6829354187603869</v>
+        <v>1.556013085124075</v>
       </c>
       <c r="O17">
-        <v>1.687465274358942</v>
+        <v>2.373320966184707</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.120828322950899</v>
+        <v>0.7067955960931442</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.07164655220788774</v>
+        <v>0.03280978179008542</v>
       </c>
       <c r="E18">
-        <v>0.08131040176327353</v>
+        <v>0.2041348464836847</v>
       </c>
       <c r="F18">
-        <v>0.6163140889440228</v>
+        <v>0.7077914269630767</v>
       </c>
       <c r="G18">
-        <v>0.0007840459632395793</v>
+        <v>0.002415678200855535</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3518364888083134</v>
+        <v>0.8759994884909155</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.923490024431487</v>
+        <v>0.5852137337918748</v>
       </c>
       <c r="L18">
-        <v>0.4600689794637987</v>
+        <v>0.2098277897659386</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6916515081627832</v>
+        <v>1.559730165733979</v>
       </c>
       <c r="O18">
-        <v>1.664184845176209</v>
+        <v>2.371544591492437</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.111508567293811</v>
+        <v>0.7043110634384675</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.07113462278584137</v>
+        <v>0.03263881423452375</v>
       </c>
       <c r="E19">
-        <v>0.08141710301920746</v>
+        <v>0.2042481295336245</v>
       </c>
       <c r="F19">
-        <v>0.6126327854921243</v>
+        <v>0.7072481424054899</v>
       </c>
       <c r="G19">
-        <v>0.0007843386984041871</v>
+        <v>0.002415862310850361</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3523759514429159</v>
+        <v>0.876599445572726</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.907503675630011</v>
+        <v>0.5803155723109796</v>
       </c>
       <c r="L19">
-        <v>0.4560613507275804</v>
+        <v>0.2087519723166196</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6946229831872408</v>
+        <v>1.560997633365133</v>
       </c>
       <c r="O19">
-        <v>1.65636937696155</v>
+        <v>2.370966669555997</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.153491314278284</v>
+        <v>0.7155073279007524</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.07343816975796358</v>
+        <v>0.03340746598843936</v>
       </c>
       <c r="E20">
-        <v>0.0809447057108823</v>
+        <v>0.2037430634604593</v>
       </c>
       <c r="F20">
-        <v>0.6292852989697266</v>
+        <v>0.7097218038395638</v>
       </c>
       <c r="G20">
-        <v>0.000783025740401016</v>
+        <v>0.002415039001773145</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3500058076439529</v>
+        <v>0.8739263107863273</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.979471736627687</v>
+        <v>0.6023493059781799</v>
       </c>
       <c r="L20">
-        <v>0.4741209055726188</v>
+        <v>0.2135983638580541</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6813319926248624</v>
+        <v>1.555329377903591</v>
       </c>
       <c r="O20">
-        <v>1.691806092340045</v>
+        <v>2.37366090924229</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.295347874746369</v>
+        <v>0.7533955547624771</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.08117587887358724</v>
+        <v>0.03597729939033201</v>
       </c>
       <c r="E21">
-        <v>0.07949563496926793</v>
+        <v>0.2021286042103867</v>
       </c>
       <c r="F21">
-        <v>0.686819093402562</v>
+        <v>0.7185372153007847</v>
       </c>
       <c r="G21">
-        <v>0.0007786894365926485</v>
+        <v>0.002412363690814759</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3430785170935167</v>
+        <v>0.8654128224287447</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.221839462784487</v>
+        <v>0.6762269543982597</v>
       </c>
       <c r="L21">
-        <v>0.535264637770382</v>
+        <v>0.2299701464422697</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6381272199723611</v>
+        <v>1.536905981388793</v>
       </c>
       <c r="O21">
-        <v>1.815745778345985</v>
+        <v>2.384350055356492</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.388720111831674</v>
+        <v>0.7783560998717576</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08623336376745527</v>
+        <v>0.03764721320710152</v>
       </c>
       <c r="E22">
-        <v>0.07865419046696331</v>
+        <v>0.2011348107117534</v>
       </c>
       <c r="F22">
-        <v>0.7256947974752421</v>
+        <v>0.7246742785116282</v>
       </c>
       <c r="G22">
-        <v>0.000775909290639254</v>
+        <v>0.002410682694308885</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3393607567142922</v>
+        <v>0.8601974168527597</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.380763012287559</v>
+        <v>0.7243925220126357</v>
       </c>
       <c r="L22">
-        <v>0.5756138764099603</v>
+        <v>0.2407353820970144</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6110146578986946</v>
+        <v>1.525328304723043</v>
       </c>
       <c r="O22">
-        <v>1.90065717470145</v>
+        <v>2.392556180275363</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.33882086386879</v>
+        <v>0.7650162308131598</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08353392503383361</v>
+        <v>0.03675683758354609</v>
       </c>
       <c r="E23">
-        <v>0.0790934469528537</v>
+        <v>0.2016596122049634</v>
       </c>
       <c r="F23">
-        <v>0.7048233037240124</v>
+        <v>0.7213644466831539</v>
       </c>
       <c r="G23">
-        <v>0.0007773883132826494</v>
+        <v>0.002411573717012475</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.34126843814105</v>
+        <v>0.8629490795192325</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.295887989008975</v>
+        <v>0.6986966798646677</v>
       </c>
       <c r="L23">
-        <v>0.5540404861168753</v>
+        <v>0.2349838396378487</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6253794453959447</v>
+        <v>1.531465149208294</v>
       </c>
       <c r="O23">
-        <v>1.85496238903383</v>
+        <v>2.38806476275775</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.151182970146266</v>
+        <v>0.7148914578118024</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.07331168165462998</v>
+        <v>0.03336530286600947</v>
       </c>
       <c r="E24">
-        <v>0.08097013452999491</v>
+        <v>0.2037704885895817</v>
       </c>
       <c r="F24">
-        <v>0.628365095619948</v>
+        <v>0.7095840648244405</v>
       </c>
       <c r="G24">
-        <v>0.0007830975543569237</v>
+        <v>0.002415083871422218</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3501321593775693</v>
+        <v>0.8740713462364909</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.975517717323896</v>
+        <v>0.6011398829133157</v>
       </c>
       <c r="L24">
-        <v>0.4731275082331052</v>
+        <v>0.2133318882470974</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.682056516532132</v>
+        <v>1.555638314840401</v>
       </c>
       <c r="O24">
-        <v>1.689842404900816</v>
+        <v>2.373506796952398</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9512142156449386</v>
+        <v>0.6616952457260936</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.06227546578395504</v>
+        <v>0.02966652012170101</v>
       </c>
       <c r="E25">
-        <v>0.08343088045502789</v>
+        <v>0.2063116824795053</v>
       </c>
       <c r="F25">
-        <v>0.5507689456106633</v>
+        <v>0.6984907791853772</v>
       </c>
       <c r="G25">
-        <v>0.0007895003092426098</v>
+        <v>0.002419161605275004</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3629317065562567</v>
+        <v>0.8875658429936948</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.631549206694416</v>
+        <v>0.4954287837333311</v>
       </c>
       <c r="L25">
-        <v>0.3872578121676611</v>
+        <v>0.1902615655083366</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.747748225624731</v>
+        <v>1.583700506147347</v>
       </c>
       <c r="O25">
-        <v>1.52678143425635</v>
+        <v>2.363040961651876</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_134/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_134/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6232884480899656</v>
+        <v>0.8056154022312683</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02690862442339181</v>
+        <v>0.05412715721335815</v>
       </c>
       <c r="E2">
-        <v>0.2084112958037858</v>
+        <v>0.08560055008876066</v>
       </c>
       <c r="F2">
-        <v>0.6917086417030944</v>
+        <v>0.4972085767378971</v>
       </c>
       <c r="G2">
-        <v>0.002422417213734766</v>
+        <v>0.0007944392557477004</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8987914908940198</v>
+        <v>0.3748978698275245</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4171906485533441</v>
+        <v>1.378961258568779</v>
       </c>
       <c r="L2">
-        <v>0.1735204502681711</v>
+        <v>0.3249641915363526</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.606075040866205</v>
+        <v>0.7997672496043524</v>
       </c>
       <c r="O2">
-        <v>2.359832708075601</v>
+        <v>1.417857988438584</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5977414858373606</v>
+        <v>0.7077562041794181</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0250182463317401</v>
+        <v>0.04858467500084629</v>
       </c>
       <c r="E3">
-        <v>0.2099774247134594</v>
+        <v>0.08728589269371589</v>
       </c>
       <c r="F3">
-        <v>0.6879759794752189</v>
+        <v>0.4628539766291127</v>
       </c>
       <c r="G3">
-        <v>0.002424782780578028</v>
+        <v>0.0007979332579313159</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.907204706526052</v>
+        <v>0.3844799404391104</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3639223348889971</v>
+        <v>1.207883163853978</v>
       </c>
       <c r="L3">
-        <v>0.1623285125416345</v>
+        <v>0.2832006530478708</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.622308216799819</v>
+        <v>0.8371739527882891</v>
       </c>
       <c r="O3">
-        <v>2.360461345777935</v>
+        <v>1.350158887302314</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5822958695243585</v>
+        <v>0.6480093408635241</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02384711740899803</v>
+        <v>0.04516967004663286</v>
       </c>
       <c r="E4">
-        <v>0.2110098799531901</v>
+        <v>0.08842410284177937</v>
       </c>
       <c r="F4">
-        <v>0.6861100133191371</v>
+        <v>0.442631152885248</v>
       </c>
       <c r="G4">
-        <v>0.002426314196749564</v>
+        <v>0.0008001530940799917</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9127680805732936</v>
+        <v>0.3910544004606429</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3310970610297659</v>
+        <v>1.10279642348857</v>
       </c>
       <c r="L4">
-        <v>0.1555327897606134</v>
+        <v>0.2577423604247855</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.63280354603296</v>
+        <v>0.8611649631467824</v>
       </c>
       <c r="O4">
-        <v>2.362229328441188</v>
+        <v>1.311355023591688</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5760626450020254</v>
+        <v>0.6237388783643212</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02336727240821546</v>
+        <v>0.04377479436765697</v>
       </c>
       <c r="E5">
-        <v>0.2114484587196541</v>
+        <v>0.08891355714325844</v>
       </c>
       <c r="F5">
-        <v>0.6854567536984462</v>
+        <v>0.4345969733296755</v>
       </c>
       <c r="G5">
-        <v>0.002426958171625151</v>
+        <v>0.0008010767180623978</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9151352268179451</v>
+        <v>0.3939022748130689</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.317691425004142</v>
+        <v>1.059949086168928</v>
       </c>
       <c r="L5">
-        <v>0.1527827495160494</v>
+        <v>0.2474090228621861</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.637213304494603</v>
+        <v>0.8711931528649863</v>
       </c>
       <c r="O5">
-        <v>2.363297343136821</v>
+        <v>1.296201421021379</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5750313228724622</v>
+        <v>0.6197131917859338</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02328743809773215</v>
+        <v>0.04354297422239028</v>
       </c>
       <c r="E6">
-        <v>0.2115223630618388</v>
+        <v>0.0889963675144152</v>
       </c>
       <c r="F6">
-        <v>0.6853547524073917</v>
+        <v>0.4332750458153072</v>
       </c>
       <c r="G6">
-        <v>0.002427066307281703</v>
+        <v>0.0008012312423194001</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9155343321595133</v>
+        <v>0.3943852095247848</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3154636936105817</v>
+        <v>1.052832537695707</v>
       </c>
       <c r="L6">
-        <v>0.152327274874736</v>
+        <v>0.2456955131517446</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.637953564941121</v>
+        <v>0.8728733660571812</v>
       </c>
       <c r="O6">
-        <v>2.36349567817571</v>
+        <v>1.293723984803634</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.582211558393027</v>
+        <v>0.6476817204737131</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02384065655215295</v>
+        <v>0.04515087166754483</v>
       </c>
       <c r="E7">
-        <v>0.2110157224860485</v>
+        <v>0.08843060053008234</v>
       </c>
       <c r="F7">
-        <v>0.6861007693866412</v>
+        <v>0.4425219796407376</v>
       </c>
       <c r="G7">
-        <v>0.002426322800886691</v>
+        <v>0.0008001654730258607</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.912799599680163</v>
+        <v>0.3910921312201943</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3309163847375771</v>
+        <v>1.102218681091813</v>
       </c>
       <c r="L7">
-        <v>0.1554956235684131</v>
+        <v>0.2576028417587679</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.63286247972332</v>
+        <v>0.8612991951039799</v>
       </c>
       <c r="O7">
-        <v>2.362242324813224</v>
+        <v>1.311148033302644</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6144303027969045</v>
+        <v>0.7717979653202747</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02625899933916287</v>
+        <v>0.05221842804650123</v>
       </c>
       <c r="E8">
-        <v>0.2089366111650692</v>
+        <v>0.08615996434144524</v>
       </c>
       <c r="F8">
-        <v>0.6903332442784489</v>
+        <v>0.4851747724626705</v>
       </c>
       <c r="G8">
-        <v>0.002423216510448967</v>
+        <v>0.0007956287013701362</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9016098648018911</v>
+        <v>0.3780552514491013</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3988486828486373</v>
+        <v>1.319974860492295</v>
       </c>
       <c r="L8">
-        <v>0.1696457276739807</v>
+        <v>0.3105224995986049</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.611562655342009</v>
+        <v>0.8124492755444646</v>
       </c>
       <c r="O8">
-        <v>2.359762642155488</v>
+        <v>1.393919744202663</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6794970697685017</v>
+        <v>1.018290819994093</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03091784391224905</v>
+        <v>0.06599562672069936</v>
       </c>
       <c r="E9">
-        <v>0.2054202593495162</v>
+        <v>0.08254525047551908</v>
       </c>
       <c r="F9">
-        <v>0.7020121814853866</v>
+        <v>0.5763125102483428</v>
       </c>
       <c r="G9">
-        <v>0.00241774885139025</v>
+        <v>0.000787309565473847</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8828199843867495</v>
+        <v>0.3582096158118091</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5311011740609501</v>
+        <v>1.747266138510838</v>
       </c>
       <c r="L9">
-        <v>0.1979947713493004</v>
+        <v>0.4160205673280331</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.573981896577173</v>
+        <v>0.7250355318059949</v>
       </c>
       <c r="O9">
-        <v>2.365867329335003</v>
+        <v>1.57986319157024</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7284284918052322</v>
+        <v>1.201898897345984</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0342890451585447</v>
+        <v>0.07608633451370395</v>
       </c>
       <c r="E10">
-        <v>0.2031768073700828</v>
+        <v>0.08042555511788052</v>
       </c>
       <c r="F10">
-        <v>0.7126544477688697</v>
+        <v>0.6487031586966481</v>
       </c>
       <c r="G10">
-        <v>0.002414108310903015</v>
+        <v>0.0007815294033929275</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8709347515764705</v>
+        <v>0.3474594548864332</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6276573783410697</v>
+        <v>2.06231267283809</v>
       </c>
       <c r="L10">
-        <v>0.2191863574853983</v>
+        <v>0.4949645912944902</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.548920868109274</v>
+        <v>0.6663011518403366</v>
       </c>
       <c r="O10">
-        <v>2.377045713747663</v>
+        <v>1.733386164751067</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7509288231973699</v>
+        <v>1.286118623600146</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03581133577122841</v>
+        <v>0.08067449971360219</v>
       </c>
       <c r="E11">
-        <v>0.2022296404301738</v>
+        <v>0.07958343381470101</v>
       </c>
       <c r="F11">
-        <v>0.7179440894775269</v>
+        <v>0.6830187233392024</v>
       </c>
       <c r="G11">
-        <v>0.002412533108740953</v>
+        <v>0.000778967238952514</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8659441622722497</v>
+        <v>0.3434810023808303</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6714465664937848</v>
+        <v>2.206106097387988</v>
       </c>
       <c r="L11">
-        <v>0.2289054558372641</v>
+        <v>0.5312808497186126</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.538072803982798</v>
+        <v>0.6408622100621937</v>
       </c>
       <c r="O11">
-        <v>2.383586301068135</v>
+        <v>1.807492639128469</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7594832957352935</v>
+        <v>1.318123093211653</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03638614565642939</v>
+        <v>0.08241198347091938</v>
       </c>
       <c r="E12">
-        <v>0.2018814961462621</v>
+        <v>0.07928261529522196</v>
       </c>
       <c r="F12">
-        <v>0.7200116174371942</v>
+        <v>0.6962302885050775</v>
       </c>
       <c r="G12">
-        <v>0.002411948194311338</v>
+        <v>0.0007780062809059996</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8641141510310391</v>
+        <v>0.3421127272961932</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6880084420313324</v>
+        <v>2.260645425057447</v>
       </c>
       <c r="L12">
-        <v>0.2325970862033131</v>
+        <v>0.5450989557553498</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.534044322518001</v>
+        <v>0.6314212031769166</v>
       </c>
       <c r="O12">
-        <v>2.386272409666134</v>
+        <v>1.836221288949133</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7576394305579015</v>
+        <v>1.311225160016789</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03626242379082356</v>
+        <v>0.08203777735757711</v>
       </c>
       <c r="E13">
-        <v>0.2019560074598044</v>
+        <v>0.07934658967894315</v>
       </c>
       <c r="F13">
-        <v>0.7195634720685575</v>
+        <v>0.6933749926503623</v>
       </c>
       <c r="G13">
-        <v>0.002412073651963498</v>
+        <v>0.0007782128342729709</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.864505616535947</v>
+        <v>0.3424011413519672</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6844424537583791</v>
+        <v>2.248895174248531</v>
       </c>
       <c r="L13">
-        <v>0.2318015307165666</v>
+        <v>0.5421199174644613</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.5349083943729</v>
+        <v>0.6334458109250622</v>
       </c>
       <c r="O13">
-        <v>2.385684597599493</v>
+        <v>1.830003561632651</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7516319250969161</v>
+        <v>1.288749327014187</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03585865891267304</v>
+        <v>0.0808174405308506</v>
       </c>
       <c r="E14">
-        <v>0.2022007875577643</v>
+        <v>0.07955832003969476</v>
       </c>
       <c r="F14">
-        <v>0.7181128946232604</v>
+        <v>0.6841011909598507</v>
       </c>
       <c r="G14">
-        <v>0.002412484755961018</v>
+        <v>0.0007788879967389317</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8657924074042569</v>
+        <v>0.3433656197577335</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6728095299929748</v>
+        <v>2.21059120395887</v>
       </c>
       <c r="L14">
-        <v>0.2292089444113969</v>
+        <v>0.532416305804631</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.537739786059813</v>
+        <v>0.6400815928887233</v>
       </c>
       <c r="O14">
-        <v>2.38380309336921</v>
+        <v>1.809842499440521</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7479565757564899</v>
+        <v>1.274997231354149</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03561112581587622</v>
+        <v>0.08006996577908865</v>
       </c>
       <c r="E15">
-        <v>0.2023520926222897</v>
+        <v>0.07969038041815146</v>
       </c>
       <c r="F15">
-        <v>0.7172327672315362</v>
+        <v>0.6784495312381011</v>
       </c>
       <c r="G15">
-        <v>0.002412738075241002</v>
+        <v>0.0007793027494817673</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8665883934809493</v>
+        <v>0.3439746181831751</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6656813827063388</v>
+        <v>2.187140956997041</v>
       </c>
       <c r="L15">
-        <v>0.2276223675017803</v>
+        <v>0.5264813895053919</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.539484441988066</v>
+        <v>0.6441714776062639</v>
       </c>
       <c r="O15">
-        <v>2.382677879611691</v>
+        <v>1.797581632136996</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7269628444638272</v>
+        <v>1.196409966695683</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03418933059702312</v>
+        <v>0.07578647363926194</v>
       </c>
       <c r="E16">
-        <v>0.203240181522192</v>
+        <v>0.08048309062095171</v>
       </c>
       <c r="F16">
-        <v>0.712317778348563</v>
+        <v>0.6464899220200238</v>
       </c>
       <c r="G16">
-        <v>0.002414212877412285</v>
+        <v>0.0007816981671214276</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8712692694821911</v>
+        <v>0.3477384070164611</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6247928754961549</v>
+        <v>2.052926650142126</v>
       </c>
       <c r="L16">
-        <v>0.2185527686951474</v>
+        <v>0.4926000275111022</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.549640930555414</v>
+        <v>0.6679900821426124</v>
       </c>
       <c r="O16">
-        <v>2.376647561942917</v>
+        <v>1.728633416794736</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7141452186077117</v>
+        <v>1.148385845339789</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03331419650363188</v>
+        <v>0.0731583844004362</v>
       </c>
       <c r="E17">
-        <v>0.203803773722262</v>
+        <v>0.08100103154431437</v>
       </c>
       <c r="F17">
-        <v>0.7094174245307627</v>
+        <v>0.6272507538097116</v>
       </c>
       <c r="G17">
-        <v>0.002415138303064886</v>
+        <v>0.0007831846321390243</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.874247389869705</v>
+        <v>0.3502858766251506</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.599674051118285</v>
+        <v>1.970725991604382</v>
       </c>
       <c r="L17">
-        <v>0.2130089877765329</v>
+        <v>0.4719238303246414</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.556013085124075</v>
+        <v>0.6829354187603762</v>
       </c>
       <c r="O17">
-        <v>2.373320966184707</v>
+        <v>1.687465274358914</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7067955960931442</v>
+        <v>1.120828322950814</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03280978179008542</v>
+        <v>0.07164655220805827</v>
       </c>
       <c r="E18">
-        <v>0.2041348464836847</v>
+        <v>0.08131040176328064</v>
       </c>
       <c r="F18">
-        <v>0.7077914269630767</v>
+        <v>0.6163140889440086</v>
       </c>
       <c r="G18">
-        <v>0.002415678200855535</v>
+        <v>0.0007840459632642448</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8759994884909155</v>
+        <v>0.3518364888083205</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5852137337918748</v>
+        <v>1.923490024431601</v>
       </c>
       <c r="L18">
-        <v>0.2098277897659386</v>
+        <v>0.4600689794637702</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.559730165733979</v>
+        <v>0.691651508162769</v>
       </c>
       <c r="O18">
-        <v>2.371544591492437</v>
+        <v>1.664184845176237</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7043110634384675</v>
+        <v>1.111508567293924</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03263881423452375</v>
+        <v>0.07113462278572769</v>
       </c>
       <c r="E19">
-        <v>0.2042481295336245</v>
+        <v>0.08141710301921101</v>
       </c>
       <c r="F19">
-        <v>0.7072481424054899</v>
+        <v>0.612632785492103</v>
       </c>
       <c r="G19">
-        <v>0.002415862310850361</v>
+        <v>0.00078433869842915</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.876599445572726</v>
+        <v>0.3523759514429159</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5803155723109796</v>
+        <v>1.907503675630096</v>
       </c>
       <c r="L19">
-        <v>0.2087519723166196</v>
+        <v>0.4560613507276088</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.560997633365133</v>
+        <v>0.694622983187287</v>
       </c>
       <c r="O19">
-        <v>2.370966669555997</v>
+        <v>1.656369376961578</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7155073279007524</v>
+        <v>1.153491314278398</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03340746598843936</v>
+        <v>0.07343816975784989</v>
       </c>
       <c r="E20">
-        <v>0.2037430634604593</v>
+        <v>0.08094470571086454</v>
       </c>
       <c r="F20">
-        <v>0.7097218038395638</v>
+        <v>0.6292852989697124</v>
       </c>
       <c r="G20">
-        <v>0.002415039001773145</v>
+        <v>0.0007830257404005662</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8739263107863273</v>
+        <v>0.3500058076439565</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6023493059781799</v>
+        <v>1.979471736627659</v>
       </c>
       <c r="L20">
-        <v>0.2135983638580541</v>
+        <v>0.4741209055725619</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.555329377903591</v>
+        <v>0.6813319926248376</v>
       </c>
       <c r="O20">
-        <v>2.37366090924229</v>
+        <v>1.691806092339931</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7533955547624771</v>
+        <v>1.295347874746369</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03597729939033201</v>
+        <v>0.08117587887375066</v>
       </c>
       <c r="E21">
-        <v>0.2021286042103867</v>
+        <v>0.07949563496927858</v>
       </c>
       <c r="F21">
-        <v>0.7185372153007847</v>
+        <v>0.6868190934025478</v>
       </c>
       <c r="G21">
-        <v>0.002412363690814759</v>
+        <v>0.0007786894366455313</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8654128224287447</v>
+        <v>0.3430785170935202</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6762269543982597</v>
+        <v>2.22183946278443</v>
       </c>
       <c r="L21">
-        <v>0.2299701464422697</v>
+        <v>0.5352646377704104</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.536905981388793</v>
+        <v>0.6381272199724108</v>
       </c>
       <c r="O21">
-        <v>2.384350055356492</v>
+        <v>1.815745778345985</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7783560998717576</v>
+        <v>1.388720111831759</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03764721320710152</v>
+        <v>0.0862333637672279</v>
       </c>
       <c r="E22">
-        <v>0.2011348107117534</v>
+        <v>0.07865419046696331</v>
       </c>
       <c r="F22">
-        <v>0.7246742785116282</v>
+        <v>0.7256947974752279</v>
       </c>
       <c r="G22">
-        <v>0.002410682694308885</v>
+        <v>0.0007759092906415071</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8601974168527597</v>
+        <v>0.3393607567142887</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7243925220126357</v>
+        <v>2.380763012287503</v>
       </c>
       <c r="L22">
-        <v>0.2407353820970144</v>
+        <v>0.5756138764100314</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.525328304723043</v>
+        <v>0.611014657898691</v>
       </c>
       <c r="O22">
-        <v>2.392556180275363</v>
+        <v>1.900657174701422</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7650162308131598</v>
+        <v>1.33882086386879</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03675683758354609</v>
+        <v>0.08353392503389756</v>
       </c>
       <c r="E23">
-        <v>0.2016596122049634</v>
+        <v>0.07909344695284659</v>
       </c>
       <c r="F23">
-        <v>0.7213644466831539</v>
+        <v>0.7048233037240124</v>
       </c>
       <c r="G23">
-        <v>0.002411573717012475</v>
+        <v>0.0007773883132551578</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8629490795192325</v>
+        <v>0.3412684381410358</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6986966798646677</v>
+        <v>2.295887989008975</v>
       </c>
       <c r="L23">
-        <v>0.2349838396378487</v>
+        <v>0.5540404861168184</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.531465149208294</v>
+        <v>0.6253794453959358</v>
       </c>
       <c r="O23">
-        <v>2.38806476275775</v>
+        <v>1.854962389033801</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7148914578118024</v>
+        <v>1.151182970146237</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03336530286600947</v>
+        <v>0.07331168165462287</v>
       </c>
       <c r="E24">
-        <v>0.2037704885895817</v>
+        <v>0.08097013452999668</v>
       </c>
       <c r="F24">
-        <v>0.7095840648244405</v>
+        <v>0.6283650956199409</v>
       </c>
       <c r="G24">
-        <v>0.002415083871422218</v>
+        <v>0.0007830975543812855</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8740713462364909</v>
+        <v>0.3501321593775799</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6011398829133157</v>
+        <v>1.975517717323925</v>
       </c>
       <c r="L24">
-        <v>0.2133318882470974</v>
+        <v>0.4731275082332473</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.555638314840401</v>
+        <v>0.6820565165321142</v>
       </c>
       <c r="O24">
-        <v>2.373506796952398</v>
+        <v>1.689842404900872</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6616952457260936</v>
+        <v>0.9512142156448817</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02966652012170101</v>
+        <v>0.06227546578372767</v>
       </c>
       <c r="E25">
-        <v>0.2063116824795053</v>
+        <v>0.08343088045501368</v>
       </c>
       <c r="F25">
-        <v>0.6984907791853772</v>
+        <v>0.5507689456106633</v>
       </c>
       <c r="G25">
-        <v>0.002419161605275004</v>
+        <v>0.0007895003092193705</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8875658429936948</v>
+        <v>0.362931706556239</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4954287837333311</v>
+        <v>1.631549206694444</v>
       </c>
       <c r="L25">
-        <v>0.1902615655083366</v>
+        <v>0.38725781216759</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.583700506147347</v>
+        <v>0.7477482256247789</v>
       </c>
       <c r="O25">
-        <v>2.363040961651876</v>
+        <v>1.526781434256407</v>
       </c>
     </row>
   </sheetData>
